--- a/Bookstore.bugreport.xlsx
+++ b/Bookstore.bugreport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\testi\OneDrive\Desktop\Bookstore_Testing_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6B32A9-716B-4B89-9884-33FB7ABD7048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76A72E4-00F3-4664-BE70-4A4F2EA6A626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
